--- a/msx3gen/files/msx_mini.xlsx
+++ b/msx3gen/files/msx_mini.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>MSXmini</t>
     <phoneticPr fontId="1"/>
@@ -292,34 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i2c接続では速度が間に合わない。事前吸い出し限定になる。</t>
-    <rPh sb="3" eb="5">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小型携帯型。#19, #20と矛盾。</t>
     <rPh sb="0" eb="2">
       <t>コガタ</t>
@@ -449,6 +421,55 @@
     <t>具体的にどんなイメージ？</t>
     <rPh sb="0" eb="3">
       <t>グタイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://x.com/nishikazuhiko/status/1849093721113108964</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/Oも機能するカートリッジスロット</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#22と矛盾。</t>
+    <rPh sb="4" eb="6">
+      <t>ムジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#23と矛盾。i2c接続では速度が間に合わない。事前吸い出し限定になる。</t>
+    <rPh sb="4" eb="6">
+      <t>ムジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -840,8 +861,8 @@
   </sheetPr>
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,7 +872,7 @@
     <col min="3" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="48.625" customWidth="1"/>
+    <col min="6" max="6" width="59.625" customWidth="1"/>
     <col min="7" max="7" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -910,7 +931,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>6</v>
@@ -930,7 +951,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
@@ -950,7 +971,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -988,7 +1009,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -1008,7 +1029,7 @@
         <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>3</v>
@@ -1046,7 +1067,7 @@
         <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1066,7 +1087,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>3</v>
@@ -1086,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -1106,7 +1127,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>2</v>
@@ -1144,7 +1165,7 @@
         <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
@@ -1182,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -1202,7 +1223,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>2</v>
@@ -1240,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>2</v>
@@ -1260,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>1</v>
@@ -1280,7 +1301,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>1</v>
@@ -1318,19 +1339,31 @@
         <v>40</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
@@ -1373,8 +1406,9 @@
     <hyperlink ref="G29" r:id="rId20"/>
     <hyperlink ref="G23" r:id="rId21"/>
     <hyperlink ref="G24" r:id="rId22"/>
+    <hyperlink ref="G30" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967293" r:id="rId23"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967293" r:id="rId24"/>
 </worksheet>
 </file>